--- a/DOM_Banner/output/dept0721/HH Sherry Chow_2022.xlsx
+++ b/DOM_Banner/output/dept0721/HH Sherry Chow_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, Tucson, USA; University of Arizona Cancer Center, Tucson, USA; University of Arizona Cancer Center, Tucson, USA; University of Arizona Cancer Center, Tucson, USA; Department of Medicine, Stony Brook University, Stony Brook, USA; Department of Medicine, Stony Brook University, Stony Brook, USA; University of Arizona Cancer Center, Tucson, USA; Department of Medicine, Stony Brook University, Stony Brook, USA; Department of Medicine, Cedars Sinai Medicine, Samuel Oschin Comprehensive Cancer Institute, Advanced Health Science Pavilion, Los Angeles, USA; Department of Pathology, Stony Brook University, Stony Brook, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206655975</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Sulindac Improves Stiffness and Quality of Life in Women Taking Aromatase Inhibitors for Breast Cancer</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Breast Cancer Research and Treatment</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10549-021-06485-0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35039952</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10549-021-06485-0</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,80 +534,85 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Victor H. Ruíz, David Encinas-Basurto, Bo Sun, Basanth Babu Eedara, Sally E. Dickinson, Georg T. Wondrak, H.‐H. Sherry Chow, Clara Curiel‐Lewandrowski, Heidi M. Mansour</t>
+          <t>Víctor H. Ruiz, David Encinas-Basurto, Bo Sun, Basanth Babu Eedara, Sally E. Dickinson, Georg T. Wondrak, H.‐H. Sherry Chow, Clara Curiel‐Lewandrowski, Heidi M. Mansour</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Pharmacology and Toxicology, The University of Arizona College of Pharmacy, Tucson, AZ 85721, USA; Department of Pharmacology and Toxicology, The University of Arizona College of Pharmacy, Tucson, AZ 85721, USA; Department of Pharmacology and Toxicology, The University of Arizona College of Pharmacy, Tucson, AZ 85721, USA; Center for Translational Science, Florida Interational University, Port St. Lucie, FL 34987, USA; Department of Pharmacology and Toxicology, The University of Arizona College of Pharmacy, Tucson, AZ 85721, USA; Department of Pharmacology, The University of Arizona College of Medicine, Tucson, AZ 85724, USA; Department of Pharmacology and Toxicology, The University of Arizona College of Pharmacy, Tucson, AZ 85721, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; Center for Translational Science, Florida Interational University, Port St. Lucie, FL 34987, USA; Department of Medicine, Division of Translational &amp; Regenerative Medicine, The University of Arizona College of Medicine, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220849264</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Design, Physicochemical Characterization, and In Vitro Permeation of Innovative Resatorvid Topical Formulations for Targeted Skin Drug Delivery</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-03-24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Pharmaceutics</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pharmaceutics14040700</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35456534</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pharmaceutics14040700</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ 85724, USA.; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; College of Pharmacy, University of Arizona, Tucson, AZ 85721, USA; Division of Cancer Prevention, National Cancer Institute, Bethesa, MD 20892, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Department of Pathology and Laboratory Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Department of Pathology and Laboratory Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Division of Hematology/Oncology, Department of Medicine, George Washington (GW) University and GW Cancer Center, Washington, DC 20037, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Division of Cancer Prevention, National Cancer Institute, Bethesa, MD 20892, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283461588</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Clinical Study of Aspirin and Zileuton on Biomarkers of Tobacco-Related Carcinogenesis in Current Smokers</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-06-11</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Cancers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cancers14122893</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35740559</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cancers14122893</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Stony Brook University; Department of Biomedical Engineering, Stony Brook University, Stony Brook, USA; Department of Radiation Oncology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, USA; Department of Medicine, Northside Hospital Gwinnett, Lawrenceville, USA; Program of Public Health, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Radiology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Radiology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Biomedical Informatics, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; School of Biomedical Engineering, Health Science Center, Shenzhen University, Shenzhen, China; University of Arizona Cancer Center, Tucson, USA; Department of Medicine, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Medicine, Cedar Sinai Cancer, Cedars Sinai Medical Center, Los Angeles, USA; Stony Brook Cancer Center, Stony Brook University, Stony Brook, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, USA; Department of Radiology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4304165729</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Two fully automated data-driven 3D whole-breast segmentation strategies in MRI for MR-based breast density using image registration and U-Net with a focus on reproducibility</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-10-11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Visual Computing for Industry, Biomedicine, and Art</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Springer Nature</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s42492-022-00121-4</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36219359</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s42492-022-00121-4</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Medicine, Division of Hematology/Oncology, George Washington (GW) University and GW Cancer Center, Washington, DC 20037, USA; Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA; Department of Epidemiology and Biostatistics, UA and UA Cancer Center, Tucson, AZ 85724, USA; Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA; Biostatistics and Bioinformatics Shared Resource, UA Cancer Center, Tucson, AZ 85724, USA; Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA; Linus Pauling Institute, College of Public Health and Human Sciences, Oregon State University, Corvallis, OR 97331, USA; Biostatistics and Bioinformatics Shared Resource, UA Cancer Center, Tucson, AZ 85724, USA; Department of Molecular and Cellular Biology, UA, Tucson, AZ 85724, USA; Biostatistics and Bioinformatics Shared Resource, UA Cancer Center, Tucson, AZ 85724, USA; Division of Cancer Prevention, National Cancer Institute, Bethesda, MD 20892, USA; Division of Cancer Prevention, National Cancer Institute, Bethesda, MD 20892, USA; Division of Cancer Prevention, National Cancer Institute, Bethesda, MD 20892, USA; Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224313890</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Randomized Crossover Trial Evaluating Detoxification of Tobacco Carcinogens by Broccoli Seed and Sprout Extract in Current Smokers</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-04-24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Cancers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cancers14092129</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35565256</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cancers14092129</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Janssen Research and Development, LLC, San Diego, CA;; Urologic Oncology Branch, National Cancer Institute, National Institutes of Health, Bethesda, MD;; National Cancer Institute at the National Institutes of Health, Bethesda, MD;; Johns Hopkins Medical Institution, Baltimore, MD;; University of California, Irvine Medical Center, Orange, CA;; University of Southern California, Los Angeles, CA;; Cedars-Sinai Medical Center, Los Angeles, CA;; National Cancer Institute, National Institutes of Health, Bethesda, MD;; National Cancer Institute, Bethesda, MD;; Department of Urology, San Diego, CA;; University of Arizona, Tucson, AZ;; Natl Cancer Inst, Bethesda, MD;; Laboratory of Tumor Immunology and Biology, National Cancer Institute, National Institutes of Health, Bethesda, MD;; Laboratory of Tumor Immunology and Biology, National Cancer Institute, National Institutes of Health, Bethesda, MD;; University of Arizona Center Center, Tucson, AZ;; National Cancer Institute, Salisbury, MD;; University of Arizona Cancer Center, Tucson, AZ;; The University of Arizona Cancer Center, Tucson, AK;</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4212869151</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Immunotherapy to prevent progression on active surveillance study (IPASS): A phase II, randomized, double-blind, controlled trial of PROSTVAC in prostate cancer patients who are candidates for active surveillance.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-02-20</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.6_suppl.249</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.6_suppl.249</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, Tucson, AZ;; Universidad de Sonora, Hermosillo, Mexico; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220964347</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Abstract P1-10-02: Effect of metformin on metabolic markers associated with breast cancer risk in a phase II clinical trial in overweight/obese premenopausal women</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-02-15</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Cancer Research</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs21-p1-10-02</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs21-p1-10-02</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ, USA.; Department of Urology, University of Arizona, Tucson, AZ, USA.; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ, USA.; Center for Cancer Research, Medical University of Vienna, Vienna, Austria.; University of Arizona Cancer Center, Tucson, AZ, USA.; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, USA.; University of Arizona Cancer Center, Tucson, AZ, USA.; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ, USA.; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ, USA.; Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ, USA.; Center for Cancer Research, Medical University of Vienna, Vienna, Austria.; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ, USA.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4284990073</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Genome-Wide Association Study of Metachronous Colorectal Adenoma Risk among Participants in the Selenium Trial</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-07-09</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Nutrition and Cancer</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Routledge</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/01635581.2022.2096910</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35815403</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/01635581.2022.2096910</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, University of Arizona, Tucson, Arizona; University of Arizona Cancer Center, University of Arizona, Tucson, Arizona; Department of Urology, University of Arizona College of Medicine, Tucson, Arizona; Roswell Park Cancer Center, Buffalo, New York; University of Arizona Cancer Center, University of Arizona, Tucson, Arizona; Fred Hutchinson Cancer Research Center, Seattle, Washington; University of Arizona Cancer Center, University of Arizona, Tucson, Arizona; University of Arizona Cancer Center, University of Arizona, Tucson, Arizona; University of Arizona Cancer Center, University of Arizona, Tucson, Arizona; Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona; University of Arizona Cancer Center, University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307093466</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Effect Modification of Selenium Supplementation by Intake and Serum Concentrations of Antioxidants on the Development of Metachronous Colorectal Adenoma</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-10-22</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Nutrition and Cancer</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Routledge</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/01635581.2022.2135745</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36272100</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/01635581.2022.2135745</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;; 1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;; 2School of Life Sciences, Arizona State University, Tempe, AZ;; 2School of Life Sciences, Arizona State University, Tempe, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 4BIO5 Institute, University of Arizona, Tucson, AZ.; 1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310524393</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Abstract A006: Shared gene expression and immune pathway changes associated with progression from nevi to melanoma</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Cancer Prevention Research</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6215.tacpad22-a006</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6215.tacpad22-a006</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;; 1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;; 2School of Life Sciences, Arizona State University, Tempe, AZ;; 2School of Life Sciences, Arizona State University, Tempe, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 4BIO5 Institute, University of Arizona, Tucson, AZ; 1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310525396</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Abstract A001: Shared gene expression and immune pathway changes associated with progression from nevi to melanoma</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Cancer Prevention Research</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6215.tacpad22-a001</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6215.tacpad22-a001</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0721/HH Sherry Chow_2022.xlsx
+++ b/DOM_Banner/output/dept0721/HH Sherry Chow_2022.xlsx
@@ -621,42 +621,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Linda L. Garland, José Guillen-Rodriguez, Chiu‐Hsieh Hsu, Lisa E. Davis, Éva Szabó, Christopher Husted, Hanqiao Liu, Ashley LeClerc, Yuriy O. Alekseyev, Gang Lv, Julie E. Bauman, Avrum Spira, Jennifer E. Beane, M Wójtowicz, H‐H. Sherry Chow</t>
+          <t>Jia Ying, Renee Cattell, Tianyun Zhao, Lei Lan, Zhao Jiang, Shahid Hussain, Yi Gao, H.‐H. Sherry Chow, Alison Stopeck, Patricia A. Thompson, Chuan Huang</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona, Tucson, AZ 85724, USA.; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; College of Pharmacy, University of Arizona, Tucson, AZ 85721, USA; Division of Cancer Prevention, National Cancer Institute, Bethesa, MD 20892, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Department of Pathology and Laboratory Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Department of Pathology and Laboratory Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Division of Hematology/Oncology, Department of Medicine, George Washington (GW) University and GW Cancer Center, Washington, DC 20037, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Division of Cancer Prevention, National Cancer Institute, Bethesa, MD 20892, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA</t>
+          <t>Stony Brook University; Department of Biomedical Engineering, Stony Brook University, Stony Brook, USA; Department of Radiation Oncology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, USA; Department of Medicine, Northside Hospital Gwinnett, Lawrenceville, USA; Program of Public Health, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Radiology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Radiology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Biomedical Informatics, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; School of Biomedical Engineering, Health Science Center, Shenzhen University, Shenzhen, China; University of Arizona Cancer Center, Tucson, USA; Department of Medicine, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Medicine, Cedar Sinai Cancer, Cedars Sinai Medical Center, Los Angeles, USA; Stony Brook Cancer Center, Stony Brook University, Stony Brook, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, USA; Department of Radiology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283461588</t>
+          <t>https://openalex.org/W4304165729</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Clinical Study of Aspirin and Zileuton on Biomarkers of Tobacco-Related Carcinogenesis in Current Smokers</t>
+          <t>Two fully automated data-driven 3D whole-breast segmentation strategies in MRI for MR-based breast density using image registration and U-Net with a focus on reproducibility</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cancers</t>
+          <t>Visual Computing for Industry, Biomedicine, and Art</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cancers14122893</t>
+          <t>https://doi.org/10.1186/s42492-022-00121-4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35740559</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36219359</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cancers14122893</t>
+          <t>https://doi.org/10.1186/s42492-022-00121-4</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jia Ying, Renee Cattell, Tianyun Zhao, Lei Lan, Zhao Jiang, Shahid Hussain, Yi Gao, H.‐H. Sherry Chow, Alison Stopeck, Patricia A. Thompson, Chuan Huang</t>
+          <t>Linda L. Garland, José Guillen-Rodriguez, Chiu‐Hsieh Hsu, Lisa E. Davis, Éva Szabó, Christopher Husted, Hanqiao Liu, Ashley LeClerc, Yuriy O. Alekseyev, Gang Lv, Julie E. Bauman, Avrum Spira, Jennifer E. Beane, M Wójtowicz, H‐H. Sherry Chow</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stony Brook University; Department of Biomedical Engineering, Stony Brook University, Stony Brook, USA; Department of Radiation Oncology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, USA; Department of Medicine, Northside Hospital Gwinnett, Lawrenceville, USA; Program of Public Health, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Radiology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Radiology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Biomedical Informatics, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; School of Biomedical Engineering, Health Science Center, Shenzhen University, Shenzhen, China; University of Arizona Cancer Center, Tucson, USA; Department of Medicine, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA; Department of Medicine, Cedar Sinai Cancer, Cedars Sinai Medical Center, Los Angeles, USA; Stony Brook Cancer Center, Stony Brook University, Stony Brook, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, USA; Department of Radiology, Renaissance School of Medicine, Stony Brook University, Stony Brook, USA</t>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ 85724, USA.; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; College of Pharmacy, University of Arizona, Tucson, AZ 85721, USA; Division of Cancer Prevention, National Cancer Institute, Bethesa, MD 20892, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Department of Pathology and Laboratory Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Department of Pathology and Laboratory Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Division of Hematology/Oncology, Department of Medicine, George Washington (GW) University and GW Cancer Center, Washington, DC 20037, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Section of Computational Biomedicine, Department of Medicine, School of Medicine, Boston University, Boston, MA 02118, USA; Division of Cancer Prevention, National Cancer Institute, Bethesa, MD 20892, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4304165729</t>
+          <t>https://openalex.org/W4283461588</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Two fully automated data-driven 3D whole-breast segmentation strategies in MRI for MR-based breast density using image registration and U-Net with a focus on reproducibility</t>
+          <t>Clinical Study of Aspirin and Zileuton on Biomarkers of Tobacco-Related Carcinogenesis in Current Smokers</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Visual Computing for Industry, Biomedicine, and Art</t>
+          <t>Cancers</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Springer Nature</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s42492-022-00121-4</t>
+          <t>https://doi.org/10.3390/cancers14122893</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36219359</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35740559</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s42492-022-00121-4</t>
+          <t>https://doi.org/10.3390/cancers14122893</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
